--- a/scr/Книга1.xlsx
+++ b/scr/Книга1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\PycharmProjects\CoinGraphics\scr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03FE9A51-5AF6-4413-AB31-08F2FAB12654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA29F0C-9F6D-4906-B3B2-7A308712B0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{07E3C363-2872-48BA-909D-E6ECE8DDAFBD}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{07E3C363-2872-48BA-909D-E6ECE8DDAFBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>№</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Быстрицкий Глеб Валентинович</t>
-  </si>
-  <si>
-    <t>28.01.0201</t>
   </si>
   <si>
     <t>Быстрицкая Анна Константиновна, asemenova077@gmail.com</t>
@@ -627,7 +624,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,14 +884,14 @@
       <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1">
+        <v>44224</v>
+      </c>
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -903,10 +900,10 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
         <v>49</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -914,16 +911,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1">
         <v>40482</v>
       </c>
       <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
         <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -934,16 +931,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1">
         <v>39587</v>
       </c>
       <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -952,10 +949,10 @@
         <v>13</v>
       </c>
       <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
         <v>57</v>
-      </c>
-      <c r="I12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -963,7 +960,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1">
         <v>40753</v>
@@ -975,10 +972,10 @@
         <v>13</v>
       </c>
       <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
         <v>60</v>
-      </c>
-      <c r="I13" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -986,25 +983,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1">
         <v>39414</v>
       </c>
       <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>64</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>65</v>
-      </c>
-      <c r="I14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1012,13 +1009,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1">
         <v>39269</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15">
         <v>89520299983</v>
@@ -1030,10 +1027,10 @@
         <v>13</v>
       </c>
       <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
         <v>69</v>
-      </c>
-      <c r="I15" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1041,16 +1038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1">
         <v>39002</v>
       </c>
       <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s">
         <v>72</v>
-      </c>
-      <c r="H16" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1058,25 +1055,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1">
         <v>40282</v>
       </c>
       <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
         <v>75</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
         <v>76</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>77</v>
-      </c>
-      <c r="I17" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/scr/Книга1.xlsx
+++ b/scr/Книга1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\PycharmProjects\CoinGraphics\scr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT_Py\Строганов иван\revinaevg\CoinGraphics\scr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA29F0C-9F6D-4906-B3B2-7A308712B0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99396079-1D63-4ED0-89AD-2C4E7638A8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{07E3C363-2872-48BA-909D-E6ECE8DDAFBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{07E3C363-2872-48BA-909D-E6ECE8DDAFBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
   <si>
     <t>№</t>
   </si>
@@ -268,16 +268,64 @@
   </si>
   <si>
     <t>10 Пятилетки 22-69</t>
+  </si>
+  <si>
+    <t>Почта</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gtnhjdbx72@mail.ru</t>
+  </si>
+  <si>
+    <t>kalikina84@mail.ru</t>
+  </si>
+  <si>
+    <t>tatiazam@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> elena.dadyukova@yandex.ru</t>
+  </si>
+  <si>
+    <t>nataliya-klubnichka@mail.ru</t>
+  </si>
+  <si>
+    <t>Aleksandr541@inbox.ru</t>
+  </si>
+  <si>
+    <t>gulya2182@gmail.com</t>
+  </si>
+  <si>
+    <t>asemenova077@gmail.com</t>
+  </si>
+  <si>
+    <t>ingazarubina1983@gmail.com</t>
+  </si>
+  <si>
+    <t>karlinskay@mail.ru</t>
+  </si>
+  <si>
+    <t>mcheblukov@bk.ru</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -301,14 +349,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -621,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192945D-6CB1-44DD-8C07-900C14E28F2C}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,9 +683,10 @@
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,8 +714,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -691,8 +746,11 @@
       <c r="I2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -717,8 +775,11 @@
       <c r="I3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -746,8 +807,11 @@
       <c r="I4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -775,8 +839,11 @@
       <c r="I5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -804,8 +871,11 @@
       <c r="I6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -827,8 +897,11 @@
       <c r="H7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -856,8 +929,11 @@
       <c r="I8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -876,8 +952,11 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -905,8 +984,11 @@
       <c r="I10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -925,8 +1007,11 @@
       <c r="F11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -954,8 +1039,11 @@
       <c r="I12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -965,6 +1053,9 @@
       <c r="C13" s="1">
         <v>40753</v>
       </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
       <c r="E13">
         <v>89373827144</v>
       </c>
@@ -977,8 +1068,11 @@
       <c r="I13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1003,8 +1097,11 @@
       <c r="I14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1033,7 +1130,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1049,8 +1146,11 @@
       <c r="H16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1075,9 +1175,18 @@
       <c r="I17" t="s">
         <v>77</v>
       </c>
+      <c r="K17" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K5" r:id="rId1" xr:uid="{2215B230-C963-45FC-8246-ECF12043DEF1}"/>
+    <hyperlink ref="K10" r:id="rId2" xr:uid="{3B8E3924-163F-47BB-B885-8C26F2F7B5A3}"/>
+    <hyperlink ref="K11" r:id="rId3" xr:uid="{068BA37F-E5AA-4FB1-84E4-4D0FAFB02A3A}"/>
+    <hyperlink ref="K17" r:id="rId4" xr:uid="{507DEB6A-69A2-4825-82FD-97CDAEBFC4C7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>